--- a/BigQuery_Table list.xlsx
+++ b/BigQuery_Table list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Storage117\BUSINESS_ANALYSIS\GENASYS\Google BigQuery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning bigquery\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1EDD8-80C0-406F-B02A-8B232CC41752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER LIST" sheetId="2" r:id="rId1"/>
@@ -22,10 +23,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MASTER LIST'!$A$2:$T$170</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -958,7 +964,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -984,7 +990,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,8 +1015,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1033,11 +1045,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1140,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,41 +1457,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF7C80"/>
   </sheetPr>
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="171.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="171.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>90</v>
       </c>
@@ -1426,7 +1538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1488,7 +1600,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1550,7 +1662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1586,7 +1698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1620,7 +1732,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1654,7 +1766,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1692,7 +1804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1728,7 +1840,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1772,7 +1884,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1830,7 +1942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1870,7 +1982,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1928,7 +2040,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1970,7 +2082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2010,7 +2122,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2050,7 +2162,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2084,7 +2196,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2118,7 +2230,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2160,7 +2272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2196,7 +2308,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2232,7 +2344,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2266,7 +2378,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2300,7 +2412,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2334,7 +2446,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2368,7 +2480,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2402,7 +2514,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2436,7 +2548,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2470,7 +2582,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2504,7 +2616,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2538,7 +2650,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2572,7 +2684,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2612,7 +2724,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2652,7 +2764,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2692,7 +2804,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2732,7 +2844,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2766,7 +2878,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2800,7 +2912,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2834,7 +2946,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2868,7 +2980,7 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2902,7 +3014,7 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2936,7 +3048,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2970,7 +3082,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3004,7 +3116,7 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3044,7 +3156,7 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3084,7 +3196,7 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3122,7 +3234,7 @@
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3160,7 +3272,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3194,7 +3306,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3234,7 +3346,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3268,7 +3380,7 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3302,7 +3414,7 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3338,7 +3450,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3372,7 +3484,7 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3406,7 +3518,7 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3440,7 +3552,7 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3474,7 +3586,7 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3508,7 +3620,7 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3542,7 +3654,7 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3576,7 +3688,7 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3610,7 +3722,7 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3644,7 +3756,7 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3678,7 +3790,7 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3712,7 +3824,7 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3762,7 +3874,7 @@
       </c>
       <c r="T63" s="3"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3806,7 +3918,7 @@
       </c>
       <c r="T64" s="3"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3850,7 +3962,7 @@
       </c>
       <c r="T65" s="3"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3900,7 +4012,7 @@
       </c>
       <c r="T66" s="3"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3934,7 +4046,7 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3970,7 +4082,7 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4006,7 +4118,7 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4042,7 +4154,7 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4082,7 +4194,7 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4122,7 +4234,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4160,47 +4272,47 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D74" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4240,7 +4352,7 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4280,7 +4392,7 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4320,7 +4432,7 @@
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4360,7 +4472,7 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4400,7 +4512,7 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4440,7 +4552,7 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4480,7 +4592,7 @@
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4520,7 +4632,7 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4560,47 +4672,47 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="84" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4638,7 +4750,7 @@
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4674,7 +4786,7 @@
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4710,7 +4822,7 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4746,7 +4858,7 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4788,7 +4900,7 @@
       </c>
       <c r="T89" s="3"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4830,7 +4942,7 @@
       </c>
       <c r="T90" s="3"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4864,7 +4976,7 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4900,7 +5012,7 @@
       </c>
       <c r="T92" s="3"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4938,7 +5050,7 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4976,7 +5088,7 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5012,7 +5124,7 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5046,7 +5158,7 @@
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5080,7 +5192,7 @@
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5114,7 +5226,7 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5148,7 +5260,7 @@
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5182,7 +5294,7 @@
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5216,7 +5328,7 @@
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5250,7 +5362,7 @@
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5284,7 +5396,7 @@
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5318,7 +5430,7 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5352,7 +5464,7 @@
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5386,7 +5498,7 @@
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5420,7 +5532,7 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5454,7 +5566,7 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5488,7 +5600,7 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5522,7 +5634,7 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5556,7 +5668,7 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5590,7 +5702,7 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5624,7 +5736,7 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5658,7 +5770,7 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5694,7 +5806,7 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5730,7 +5842,7 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -5764,7 +5876,7 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5798,7 +5910,7 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -5832,7 +5944,7 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5866,7 +5978,7 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -5900,7 +6012,7 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5934,7 +6046,7 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -5968,7 +6080,7 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6002,7 +6114,7 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -6036,7 +6148,7 @@
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6070,7 +6182,7 @@
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -6104,7 +6216,7 @@
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6138,7 +6250,7 @@
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -6172,7 +6284,7 @@
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6206,7 +6318,7 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -6240,7 +6352,7 @@
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6274,7 +6386,7 @@
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -6308,7 +6420,7 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6342,7 +6454,7 @@
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -6376,7 +6488,7 @@
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6410,7 +6522,7 @@
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -6444,7 +6556,7 @@
       </c>
       <c r="T137" s="3"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -6476,7 +6588,7 @@
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -6508,7 +6620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -6540,7 +6652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -6572,7 +6684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -6604,7 +6716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -6636,7 +6748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -6668,7 +6780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -6700,7 +6812,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -6732,7 +6844,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -6764,7 +6876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -6796,7 +6908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -6828,7 +6940,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -6860,7 +6972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -6892,7 +7004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -6924,7 +7036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>151</v>
       </c>
@@ -6956,7 +7068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -6988,7 +7100,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>153</v>
       </c>
@@ -7020,7 +7132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>154</v>
       </c>
@@ -7052,7 +7164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>155</v>
       </c>
@@ -7084,7 +7196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>156</v>
       </c>
@@ -7116,7 +7228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>157</v>
       </c>
@@ -7148,7 +7260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>158</v>
       </c>
@@ -7180,7 +7292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>159</v>
       </c>
@@ -7212,7 +7324,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>160</v>
       </c>
@@ -7244,7 +7356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>161</v>
       </c>
@@ -7276,7 +7388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>162</v>
       </c>
@@ -7308,7 +7420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>163</v>
       </c>
@@ -7340,7 +7452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>164</v>
       </c>
@@ -7372,7 +7484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>165</v>
       </c>
@@ -7404,7 +7516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>166</v>
       </c>
@@ -7436,7 +7548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>167</v>
       </c>
@@ -7468,7 +7580,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>168</v>
       </c>
@@ -7501,24 +7613,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T170"/>
+  <autoFilter ref="A2:T170" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>281</v>
       </c>
@@ -7526,27 +7638,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>280</v>
       </c>
@@ -7560,17 +7672,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>281</v>
       </c>
@@ -7578,22 +7692,22 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>280</v>
       </c>
@@ -7607,19 +7721,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>281</v>
       </c>
@@ -7627,17 +7741,17 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>280</v>
       </c>
@@ -7651,17 +7765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>281</v>
       </c>
@@ -7669,38 +7785,38 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>280</v>
       </c>
@@ -7714,59 +7830,71 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="161.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="160.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="16" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>